--- a/Rajasthan Royals/Riyan Parag .xlsx
+++ b/Rajasthan Royals/Riyan Parag .xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,21 @@
       <c r="F1" t="str">
         <v>sixes</v>
       </c>
+      <c r="G1" t="str">
+        <v>sr</v>
+      </c>
+      <c r="H1" t="str">
+        <v>opponentTeamName</v>
+      </c>
+      <c r="I1" t="str">
+        <v>venue</v>
+      </c>
+      <c r="J1" t="str">
+        <v>date</v>
+      </c>
+      <c r="K1" t="str">
+        <v>result</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -560,9 +575,2339 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B10" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>7</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C11" t="str">
+        <v>20</v>
+      </c>
+      <c r="D11" t="str">
+        <v>12</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B12" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C12" t="str">
+        <v>16</v>
+      </c>
+      <c r="D12" t="str">
+        <v>18</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B13" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C14" t="str">
+        <v>42</v>
+      </c>
+      <c r="D14" t="str">
+        <v>26</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B16" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B17" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <v>6</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C18" t="str">
+        <v>16</v>
+      </c>
+      <c r="D18" t="str">
+        <v>18</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B19" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
+        <v>7</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B20" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B21" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C21" t="str">
+        <v>42</v>
+      </c>
+      <c r="D21" t="str">
+        <v>26</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B22" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C22" t="str">
+        <v>6</v>
+      </c>
+      <c r="D22" t="str">
+        <v>4</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B23" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B24" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>6</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B25" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C25" t="str">
+        <v>20</v>
+      </c>
+      <c r="D25" t="str">
+        <v>12</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B26" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <v>7</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B27" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C27" t="str">
+        <v>16</v>
+      </c>
+      <c r="D27" t="str">
+        <v>18</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B28" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B29" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B30" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C30" t="str">
+        <v>20</v>
+      </c>
+      <c r="D30" t="str">
+        <v>12</v>
+      </c>
+      <c r="E30" t="str">
+        <v>2</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B31" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C31" t="str">
+        <v>6</v>
+      </c>
+      <c r="D31" t="str">
+        <v>4</v>
+      </c>
+      <c r="E31" t="str">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B32" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C32" t="str">
+        <v>42</v>
+      </c>
+      <c r="D32" t="str">
+        <v>26</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B33" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>6</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B34" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>6</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>16.66</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B35" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C35" t="str">
+        <v>20</v>
+      </c>
+      <c r="D35" t="str">
+        <v>12</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2</v>
+      </c>
+      <c r="F35" t="str">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B36" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B37" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C37" t="str">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <v>7</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B38" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C38" t="str">
+        <v>6</v>
+      </c>
+      <c r="D38" t="str">
+        <v>4</v>
+      </c>
+      <c r="E38" t="str">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B39" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C39" t="str">
+        <v>16</v>
+      </c>
+      <c r="D39" t="str">
+        <v>18</v>
+      </c>
+      <c r="E39" t="str">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>88.88</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C40" t="str">
+        <v>42</v>
+      </c>
+      <c r="D40" t="str">
+        <v>26</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <v>161.53</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C42" t="str">
+        <v>20</v>
+      </c>
+      <c r="D42" t="str">
+        <v>12</v>
+      </c>
+      <c r="E42" t="str">
+        <v>2</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C43" t="str">
+        <v>0</v>
+      </c>
+      <c r="D43" t="str">
+        <v>7</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <v>6</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <v>16.66</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C45" t="str">
+        <v>42</v>
+      </c>
+      <c r="D45" t="str">
+        <v>26</v>
+      </c>
+      <c r="E45" t="str">
+        <v>2</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <v>161.53</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C46" t="str">
+        <v>16</v>
+      </c>
+      <c r="D46" t="str">
+        <v>18</v>
+      </c>
+      <c r="E46" t="str">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>88.88</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B48" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C48" t="str">
+        <v>0</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+      <c r="F48" t="str">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B49" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C49" t="str">
+        <v>6</v>
+      </c>
+      <c r="D49" t="str">
+        <v>4</v>
+      </c>
+      <c r="E49" t="str">
+        <v>1</v>
+      </c>
+      <c r="F49" t="str">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B50" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B51" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <v>7</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B52" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C52" t="str">
+        <v>20</v>
+      </c>
+      <c r="D52" t="str">
+        <v>12</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2</v>
+      </c>
+      <c r="F52" t="str">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B53" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C53" t="str">
+        <v>16</v>
+      </c>
+      <c r="D53" t="str">
+        <v>18</v>
+      </c>
+      <c r="E53" t="str">
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B54" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>6</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B55" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C55" t="str">
+        <v>42</v>
+      </c>
+      <c r="D55" t="str">
+        <v>26</v>
+      </c>
+      <c r="E55" t="str">
+        <v>2</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B56" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C56" t="str">
+        <v>6</v>
+      </c>
+      <c r="D56" t="str">
+        <v>4</v>
+      </c>
+      <c r="E56" t="str">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B57" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B58" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0</v>
+      </c>
+      <c r="D58" t="str">
+        <v>7</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B59" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C59" t="str">
+        <v>6</v>
+      </c>
+      <c r="D59" t="str">
+        <v>4</v>
+      </c>
+      <c r="E59" t="str">
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B60" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C60" t="str">
+        <v>0</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B61" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C61" t="str">
+        <v>20</v>
+      </c>
+      <c r="D61" t="str">
+        <v>12</v>
+      </c>
+      <c r="E61" t="str">
+        <v>2</v>
+      </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B62" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C62" t="str">
+        <v>16</v>
+      </c>
+      <c r="D62" t="str">
+        <v>18</v>
+      </c>
+      <c r="E62" t="str">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B63" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C63" t="str">
+        <v>42</v>
+      </c>
+      <c r="D63" t="str">
+        <v>26</v>
+      </c>
+      <c r="E63" t="str">
+        <v>2</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B64" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C64" t="str">
+        <v>16</v>
+      </c>
+      <c r="D64" t="str">
+        <v>18</v>
+      </c>
+      <c r="E64" t="str">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B65" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C65" t="str">
+        <v>20</v>
+      </c>
+      <c r="D65" t="str">
+        <v>12</v>
+      </c>
+      <c r="E65" t="str">
+        <v>2</v>
+      </c>
+      <c r="F65" t="str">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B66" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C66" t="str">
+        <v>0</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0</v>
+      </c>
+      <c r="F66" t="str">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B67" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C67" t="str">
+        <v>0</v>
+      </c>
+      <c r="D67" t="str">
+        <v>7</v>
+      </c>
+      <c r="E67" t="str">
+        <v>0</v>
+      </c>
+      <c r="F67" t="str">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B68" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C68" t="str">
+        <v>6</v>
+      </c>
+      <c r="D68" t="str">
+        <v>4</v>
+      </c>
+      <c r="E68" t="str">
+        <v>1</v>
+      </c>
+      <c r="F68" t="str">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B69" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1</v>
+      </c>
+      <c r="D69" t="str">
+        <v>6</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B70" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2</v>
+      </c>
+      <c r="E70" t="str">
+        <v>0</v>
+      </c>
+      <c r="F70" t="str">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B71" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C71" t="str">
+        <v>42</v>
+      </c>
+      <c r="D71" t="str">
+        <v>26</v>
+      </c>
+      <c r="E71" t="str">
+        <v>2</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B72" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C72" t="str">
+        <v>20</v>
+      </c>
+      <c r="D72" t="str">
+        <v>12</v>
+      </c>
+      <c r="E72" t="str">
+        <v>2</v>
+      </c>
+      <c r="F72" t="str">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B73" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C73" t="str">
+        <v>16</v>
+      </c>
+      <c r="D73" t="str">
+        <v>18</v>
+      </c>
+      <c r="E73" t="str">
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B74" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C74" t="str">
+        <v>6</v>
+      </c>
+      <c r="D74" t="str">
+        <v>4</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B75" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C75" t="str">
+        <v>0</v>
+      </c>
+      <c r="D75" t="str">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0</v>
+      </c>
+      <c r="F75" t="str">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B76" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C76" t="str">
+        <v>0</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0</v>
+      </c>
+      <c r="F76" t="str">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B77" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C77" t="str">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <v>6</v>
+      </c>
+      <c r="E77" t="str">
+        <v>0</v>
+      </c>
+      <c r="F77" t="str">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B78" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C78" t="str">
+        <v>42</v>
+      </c>
+      <c r="D78" t="str">
+        <v>26</v>
+      </c>
+      <c r="E78" t="str">
+        <v>2</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B79" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0</v>
+      </c>
+      <c r="F79" t="str">
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B80" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2</v>
+      </c>
+      <c r="E80" t="str">
+        <v>0</v>
+      </c>
+      <c r="F80" t="str">
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B81" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C81" t="str">
+        <v>6</v>
+      </c>
+      <c r="D81" t="str">
+        <v>4</v>
+      </c>
+      <c r="E81" t="str">
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B82" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C82" t="str">
+        <v>0</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0</v>
+      </c>
+      <c r="F82" t="str">
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B83" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C83" t="str">
+        <v>16</v>
+      </c>
+      <c r="D83" t="str">
+        <v>18</v>
+      </c>
+      <c r="E83" t="str">
+        <v>1</v>
+      </c>
+      <c r="F83" t="str">
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B84" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C84" t="str">
+        <v>20</v>
+      </c>
+      <c r="D84" t="str">
+        <v>12</v>
+      </c>
+      <c r="E84" t="str">
+        <v>2</v>
+      </c>
+      <c r="F84" t="str">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B85" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C85" t="str">
+        <v>42</v>
+      </c>
+      <c r="D85" t="str">
+        <v>26</v>
+      </c>
+      <c r="E85" t="str">
+        <v>2</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <v>161.53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B86" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C86" t="str">
+        <v>0</v>
+      </c>
+      <c r="D86" t="str">
+        <v>7</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0</v>
+      </c>
+      <c r="F86" t="str">
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B87" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C87" t="str">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <v>6</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+      <c r="F87" t="str">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B88" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C88" t="str">
+        <v>0</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+      <c r="F88" t="str">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Kings XI Punjab INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Sep 27 2020</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B89" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <v>6</v>
+      </c>
+      <c r="E89" t="str">
+        <v>0</v>
+      </c>
+      <c r="F89" t="str">
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <v>16.66</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Kolkata Knight Riders INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Sep 30 2020</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B90" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C90" t="str">
+        <v>42</v>
+      </c>
+      <c r="D90" t="str">
+        <v>26</v>
+      </c>
+      <c r="E90" t="str">
+        <v>2</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <v>161.53</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Sunrisers Hyderabad INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Oct 11 2020</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B91" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C91" t="str">
+        <v>6</v>
+      </c>
+      <c r="D91" t="str">
+        <v>4</v>
+      </c>
+      <c r="E91" t="str">
+        <v>1</v>
+      </c>
+      <c r="F91" t="str">
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Chennai Super Kings INNINGS (target: 217 runs from 20 overs)</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Sep 22 2020</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B92" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C92" t="str">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2</v>
+      </c>
+      <c r="E92" t="str">
+        <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Delhi Capitals INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Oct 14 2020</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B93" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C93" t="str">
+        <v>0</v>
+      </c>
+      <c r="D93" t="str">
+        <v>7</v>
+      </c>
+      <c r="E93" t="str">
+        <v>0</v>
+      </c>
+      <c r="F93" t="str">
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Kolkata Knight Riders INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Nov 1 2020</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B94" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C94" t="str">
+        <v>16</v>
+      </c>
+      <c r="D94" t="str">
+        <v>18</v>
+      </c>
+      <c r="E94" t="str">
+        <v>1</v>
+      </c>
+      <c r="F94" t="str">
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <v>88.88</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Royal Challengers Bangalore INNINGS (target: 155 runs from 20 overs)</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Oct 3 2020</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B95" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C95" t="str">
+        <v>20</v>
+      </c>
+      <c r="D95" t="str">
+        <v>12</v>
+      </c>
+      <c r="E95" t="str">
+        <v>2</v>
+      </c>
+      <c r="F95" t="str">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Sunrisers Hyderabad INNINGS (target: 155 runs from 20 overs)</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Oct 22 2020</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B96" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C96" t="str">
+        <v>16</v>
+      </c>
+      <c r="D96" t="str">
+        <v>18</v>
+      </c>
+      <c r="E96" t="str">
+        <v>1</v>
+      </c>
+      <c r="F96" t="str">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <v>88.88</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Royal Challengers Bangalore INNINGS (target: 155 runs from 20 overs)</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Oct 3 2020</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B97" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C97" t="str">
+        <v>20</v>
+      </c>
+      <c r="D97" t="str">
+        <v>12</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2</v>
+      </c>
+      <c r="F97" t="str">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Sunrisers Hyderabad INNINGS (target: 155 runs from 20 overs)</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Oct 22 2020</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B98" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C98" t="str">
+        <v>6</v>
+      </c>
+      <c r="D98" t="str">
+        <v>4</v>
+      </c>
+      <c r="E98" t="str">
+        <v>1</v>
+      </c>
+      <c r="F98" t="str">
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Chennai Super Kings INNINGS (target: 217 runs from 20 overs)</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Sep 22 2020</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B99" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C99" t="str">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
+        <v>7</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0</v>
+      </c>
+      <c r="F99" t="str">
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Kolkata Knight Riders INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Nov 1 2020</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B100" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C100" t="str">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
+        <v>6</v>
+      </c>
+      <c r="E100" t="str">
+        <v>0</v>
+      </c>
+      <c r="F100" t="str">
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <v>16.66</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Kolkata Knight Riders INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Sep 30 2020</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B101" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C101" t="str">
+        <v>42</v>
+      </c>
+      <c r="D101" t="str">
+        <v>26</v>
+      </c>
+      <c r="E101" t="str">
+        <v>2</v>
+      </c>
+      <c r="F101" t="str">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <v>161.53</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Sunrisers Hyderabad INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Oct 11 2020</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B102" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C102" t="str">
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0</v>
+      </c>
+      <c r="F102" t="str">
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Kings XI Punjab INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Sep 27 2020</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v xml:space="preserve">Riyan Parag </v>
+      </c>
+      <c r="B103" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C103" t="str">
+        <v>1</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0</v>
+      </c>
+      <c r="F103" t="str">
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Delhi Capitals INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Oct 14 2020</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K103"/>
   </ignoredErrors>
 </worksheet>
 </file>